--- a/HelaMedical/File/NarcoDataBaseByDate.xlsx
+++ b/HelaMedical/File/NarcoDataBaseByDate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\HelaMedical\HelaMedical\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HelaMedical\HelaMedical\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -193,64 +193,7 @@
     <t xml:space="preserve">регистратор </t>
   </si>
   <si>
-    <t>lsjhdgcj</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>savc</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>sdv</t>
-  </si>
-  <si>
-    <t>Холост</t>
-  </si>
-  <si>
-    <t>Проживал один/одна</t>
-  </si>
-  <si>
-    <t>Начальное</t>
-  </si>
-  <si>
-    <t>sdvc</t>
-  </si>
-  <si>
-    <t>Физический труд</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>System.Collections.Generic.List`1[HelaMedical.Incitalization]</t>
-  </si>
-  <si>
-    <t>,jzxvjkhcv</t>
-  </si>
-  <si>
-    <t>mbdcv</t>
-  </si>
-  <si>
-    <t>m,nxnbdvn</t>
-  </si>
-  <si>
-    <t>26.10.1988</t>
-  </si>
-  <si>
-    <t>sac</t>
-  </si>
-  <si>
-    <t>zv,.n b</t>
-  </si>
-  <si>
-    <t>26.10.2000</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t xml:space="preserve">год учета </t>
   </si>
 </sst>
 </file>
@@ -580,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,169 +695,10 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>12</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
